--- a/Data/Predictions/Graph Neural Network/Other Classifiers on GNN Data/xgb_pretrained_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Other Classifiers on GNN Data/xgb_pretrained_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4704,44 +4704,44 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KODK</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>KSS</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4770,44 +4770,44 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>KSS</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>LAMR</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4836,7 +4836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>LKQ</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4851,29 +4851,29 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2012-01-01</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4917,63 +4917,63 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LPX</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LPX</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5078,44 +5078,44 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5193,12 +5193,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5210,22 +5210,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5342,22 +5342,22 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5369,12 +5369,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5401,19 +5401,19 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>MEOH</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5430,66 +5430,66 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MEOH</t>
+          <t>MERC</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MERC</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MLM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5518,44 +5518,44 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MLM</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MMP</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5606,22 +5606,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>MRC</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5650,22 +5650,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MRC</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5694,12 +5694,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2011-10-01</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2011-10-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5760,22 +5760,22 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2011-10-01</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2011-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5892,34 +5892,34 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>MTN</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MTZ</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5951,14 +5951,14 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MTZ</t>
+          <t>MUR</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5973,19 +5973,19 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>NCR</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6068,22 +6068,22 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>NCR</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-01-01</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6134,12 +6134,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6156,17 +6156,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>NFG</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6178,22 +6178,22 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>NFG</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6205,39 +6205,39 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NGL</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6266,22 +6266,22 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>NGL</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6332,22 +6332,22 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6376,132 +6376,132 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>NTAP</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NWE</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NWE</t>
+          <t>OGE</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>OLN</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>OLN</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6618,34 +6618,34 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>OTEX</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6689,56 +6689,56 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>OTEX</t>
+          <t>OXY</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>PAA</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6750,56 +6750,56 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PAA</t>
+          <t>PAG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>PBI</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PBI</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6838,22 +6838,22 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6865,29 +6865,29 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6992,12 +6992,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7080,34 +7080,34 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PFGC</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PFGC</t>
+          <t>PNM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7146,34 +7146,34 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PNM</t>
+          <t>PNW</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7212,44 +7212,44 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7278,66 +7278,66 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>PXD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PXD</t>
+          <t>RHP</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>RHP</t>
+          <t>RRC</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7410,22 +7410,22 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RRC</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7498,22 +7498,22 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SALM</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7542,7 +7542,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SALM</t>
+          <t>SBAC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7564,12 +7564,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>SBGI</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7608,22 +7608,22 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SBGI</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7674,12 +7674,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SCCO</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7696,34 +7696,34 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SCCO</t>
+          <t>SEAS</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SEAS</t>
+          <t>SLCA</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7745,51 +7745,51 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SLCA</t>
+          <t>SLGN</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SLGN</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7828,44 +7828,44 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SNA</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7894,22 +7894,22 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7938,12 +7938,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7960,12 +7960,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>SWN</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8080,12 +8080,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -8114,7 +8114,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SWN</t>
+          <t>SYK</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8124,56 +8124,56 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8207,29 +8207,29 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TGI</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -8268,12 +8268,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TGI</t>
+          <t>TGNA</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -8290,22 +8290,22 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TGNA</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8378,66 +8378,66 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>THC</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TKR</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>TKR</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8498,56 +8498,56 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TRS</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -8576,22 +8576,22 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TUP</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8620,22 +8620,22 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TUP</t>
+          <t>TWI</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8664,56 +8664,56 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>TWI</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>UIS</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8818,66 +8818,66 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>UIS</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>USM</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8889,24 +8889,24 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>USM</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8916,63 +8916,63 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VMI</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8982,46 +8982,46 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>WEC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -9038,22 +9038,22 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>WEC</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -9082,66 +9082,66 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>WTI</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9153,12 +9153,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -9214,86 +9214,64 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>ZBRA</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
-        <is>
-          <t>BB</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>ZBRA</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
         <is>
           <t>B</t>
         </is>
